--- a/Server.xlsx
+++ b/Server.xlsx
@@ -31,10 +31,10 @@
     <t>212.239.122</t>
   </si>
   <si>
-    <t>VCS_62</t>
-  </si>
-  <si>
-    <t>VCS_SMS_68</t>
+    <t>VCS_33</t>
+  </si>
+  <si>
+    <t>VCS_SMS_33</t>
   </si>
   <si>
     <t>VCS_13</t>

--- a/Server.xlsx
+++ b/Server.xlsx
@@ -24,7 +24,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="20">
     <fill>
       <patternFill patternType="none">
         <fgColor/>
@@ -53,8 +53,24 @@
     <fill/>
     <fill/>
     <fill/>
+    <fill/>
+    <fill/>
   </fills>
-  <borders count="17">
+  <borders count="19">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -178,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="1" fillId="2" fontId="0" numFmtId="22" xfId="0">
       <alignment/>
@@ -226,6 +242,12 @@
       <alignment/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="16" fillId="17" fontId="0" numFmtId="22" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="17" fillId="18" fontId="0" numFmtId="22" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="18" fillId="19" fontId="0" numFmtId="22" xfId="0">
       <alignment/>
     </xf>
   </cellXfs>
@@ -518,7 +540,7 @@
         <v>44851.712606201276</v>
       </c>
       <c r="F1" s="2">
-        <v>44853.00538430088</v>
+        <v>44853.38144736701</v>
       </c>
       <c r="G1" t="str">
         <v>212.239.122</v>
@@ -541,7 +563,7 @@
         <v>44851.712606201276</v>
       </c>
       <c r="F2" s="4">
-        <v>44853.00538444624</v>
+        <v>44853.38144747035</v>
       </c>
       <c r="G2" t="str">
         <v>212.239.122</v>
@@ -549,10 +571,10 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>VCS_22</v>
+        <v>VCS_13</v>
       </c>
       <c r="B3" t="str">
-        <v>VCS_SMS_22</v>
+        <v>VCS_SMS_13</v>
       </c>
       <c r="C3" t="str">
         <v>Offline</v>
@@ -564,7 +586,7 @@
         <v>44851.712606201276</v>
       </c>
       <c r="F3" s="6">
-        <v>44853.0053844966</v>
+        <v>44853.38144779132</v>
       </c>
       <c r="G3" t="str">
         <v>212.239.122</v>
@@ -572,10 +594,10 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>VCS_13</v>
+        <v>VCS_36</v>
       </c>
       <c r="B4" t="str">
-        <v>VCS_SMS_13</v>
+        <v>VCS_SMS_36</v>
       </c>
       <c r="C4" t="str">
         <v>Offline</v>
@@ -587,7 +609,7 @@
         <v>44851.712606201276</v>
       </c>
       <c r="F4" s="8">
-        <v>44853.005384560915</v>
+        <v>44853.38144810626</v>
       </c>
       <c r="G4" t="str">
         <v>212.239.122</v>
@@ -595,13 +617,13 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>VCS_36</v>
+        <v>VCS_7</v>
       </c>
       <c r="B5" t="str">
-        <v>VCS_SMS_36</v>
+        <v>VCS_SMS_7</v>
       </c>
       <c r="C5" t="str">
-        <v>Offline</v>
+        <v>Online</v>
       </c>
       <c r="D5" t="str">
         <v>1</v>
@@ -610,41 +632,41 @@
         <v>44851.712606201276</v>
       </c>
       <c r="F5" s="10">
-        <v>44853.00538465007</v>
+        <v>44853.38144820972</v>
       </c>
       <c r="G5" t="str">
-        <v>212.239.122</v>
+        <v>192.168.1.204</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>VCS_7</v>
+        <v>VCS_33</v>
       </c>
       <c r="B6" t="str">
-        <v>VCS_SMS_7</v>
+        <v>VCS_SMS_33</v>
       </c>
       <c r="C6" t="str">
-        <v>Online</v>
+        <v>Offline</v>
       </c>
       <c r="D6" t="str">
         <v>1</v>
       </c>
       <c r="E6" s="11">
-        <v>44851.712606201276</v>
+        <v>44853.00662921011</v>
       </c>
       <c r="F6" s="12">
-        <v>44853.005384694145</v>
+        <v>44853.381448381064</v>
       </c>
       <c r="G6" t="str">
-        <v>192.168.1.204</v>
+        <v>212.239.122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>VCS_33</v>
+        <v>VCS_6</v>
       </c>
       <c r="B7" t="str">
-        <v>VCS_SMS_33</v>
+        <v>VCS_SMS_6</v>
       </c>
       <c r="C7" t="str">
         <v>Offline</v>
@@ -656,7 +678,7 @@
         <v>44853.00662921011</v>
       </c>
       <c r="F7" s="14">
-        <v>44853.00662921011</v>
+        <v>44853.38144860696</v>
       </c>
       <c r="G7" t="str">
         <v>212.239.122</v>
@@ -664,10 +686,10 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>VCS_6</v>
+        <v>VCS_60</v>
       </c>
       <c r="B8" t="str">
-        <v>VCS_SMS_6</v>
+        <v>VCS_SMS_60</v>
       </c>
       <c r="C8" t="str">
         <v>Offline</v>
@@ -676,12 +698,35 @@
         <v>1</v>
       </c>
       <c r="E8" s="15">
-        <v>44853.00662921011</v>
+        <v>44853.38984134547</v>
       </c>
       <c r="F8" s="16">
-        <v>44853.00662921011</v>
+        <v>44853.38984134547</v>
       </c>
       <c r="G8" t="str">
+        <v>192.168.1.204</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>VCS_22</v>
+      </c>
+      <c r="B9" t="str">
+        <v>VCS_SMS_22</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Offline</v>
+      </c>
+      <c r="D9" t="str">
+        <v>1</v>
+      </c>
+      <c r="E9" s="17">
+        <v>44853.41039192052</v>
+      </c>
+      <c r="F9" s="18">
+        <v>44853.41039192052</v>
+      </c>
+      <c r="G9" t="str">
         <v>212.239.122</v>
       </c>
     </row>
